--- a/volcanic_test/hydroformyl_selectivity/reaction_data.xlsx
+++ b/volcanic_test/hydroformyl_selectivity/reaction_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\pregabalin\RF\spectre\volcanic_test\hydroformyl_selectivity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\pregabalin\RF\spectre\volcanic_test\hydroformyl_selectivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15B6576-FF31-45C1-81F5-7E0C667C99B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7033C61-B22A-45C7-8B7D-23B4E10D543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{39207EC4-D134-4FA8-ABD2-9BC56C244DC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Rh(BDPPP) - L4</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>INT7B</t>
+  </si>
+  <si>
+    <t>TS5,6L</t>
+  </si>
+  <si>
+    <t>TS6,7L</t>
+  </si>
+  <si>
+    <t>TS7,2L</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +135,36 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +198,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,402 +525,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC184988-160F-470B-8EF6-F7738BE65D35}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" activeCellId="10" sqref="B1 C1 E1 F1 G1 H1 K1 L1 N1 O1 P1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>-11.136461261881928</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>4.0570315344650503</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>-11.845238818069145</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>-25.739829927004287</v>
       </c>
       <c r="G2" s="2">
+        <v>-7.4695278685125706</v>
+      </c>
+      <c r="H2" s="6">
         <v>-14.439039439056138</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
+        <v>-12.407896971062922</v>
+      </c>
+      <c r="J2" s="6">
         <v>-21.56907866955774</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
+        <v>-13.643258395160885</v>
+      </c>
+      <c r="L2" s="6">
         <v>-29.6</v>
       </c>
-      <c r="J2" s="2">
+      <c r="M2" s="4">
         <v>6.8421266138704953</v>
       </c>
-      <c r="K2" s="2">
+      <c r="N2" s="4">
         <v>-5.4780105316763796</v>
       </c>
-      <c r="L2" s="2">
+      <c r="O2" s="4">
         <v>-18.155683688010622</v>
       </c>
-      <c r="M2" s="2">
+      <c r="P2" s="4">
         <v>-1.9733130779059596</v>
       </c>
-      <c r="N2" s="2">
+      <c r="Q2" s="4">
         <v>-11.61742608818594</v>
       </c>
-      <c r="O2" s="2">
+      <c r="R2" s="4">
         <v>-9.1098735141650948</v>
       </c>
-      <c r="P2" s="2">
+      <c r="S2" s="4">
         <v>-20.252579892471555</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="T2" s="4">
         <v>-11.399300591744677</v>
       </c>
-      <c r="R2" s="2">
+      <c r="U2" s="4">
         <v>-31.2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>7.454384389650321</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>20.3280219978129</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>11.304315073906112</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>-6.0860221252273821</v>
       </c>
       <c r="G3" s="2">
+        <v>6.9273312160925906</v>
+      </c>
+      <c r="H3" s="6">
         <v>-3.1441795376521222</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
+        <v>3.8588781148862448</v>
+      </c>
+      <c r="J3" s="6">
         <v>-6.0676531068340873</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
+        <v>3.4587941602127343</v>
+      </c>
+      <c r="L3" s="6">
         <v>-29.6</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M3" s="4">
         <v>20.733175023006133</v>
       </c>
-      <c r="K3" s="2">
+      <c r="N3" s="4">
         <v>15.475227699127428</v>
       </c>
-      <c r="L3" s="2">
+      <c r="O3" s="4">
         <v>0.97172359212365655</v>
       </c>
-      <c r="M3" s="2">
+      <c r="P3" s="4">
         <v>14.366162113998726</v>
       </c>
-      <c r="N3" s="2">
+      <c r="Q3" s="4">
         <v>-1.8501828641990476</v>
       </c>
-      <c r="O3" s="2">
+      <c r="R3" s="4">
         <v>6.8648560090565187</v>
       </c>
-      <c r="P3" s="2">
+      <c r="S3" s="4">
         <v>-3.4964518247577243</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="T3" s="4">
         <v>6.4865482166615687</v>
       </c>
-      <c r="R3" s="2">
+      <c r="U3" s="4">
         <v>-31.2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>-15.609341462542275</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>-1.7698192652730722</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>-21.585266702857751</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>-32.355693927027708</v>
       </c>
       <c r="G4" s="2">
+        <v>-8.3627403683494403</v>
+      </c>
+      <c r="H4" s="6">
         <v>-18.831399410288718</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
+        <v>-23.464113753746357</v>
+      </c>
+      <c r="J4" s="6">
         <v>-34.113997904214209</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
+        <v>-25.833845920518915</v>
+      </c>
+      <c r="L4" s="6">
         <v>-29.6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="M4" s="4">
         <v>-2.5504760917315572</v>
       </c>
-      <c r="K4" s="2">
+      <c r="N4" s="4">
         <v>-16.94439625097478</v>
       </c>
-      <c r="L4" s="2">
+      <c r="O4" s="4">
         <v>-30.114992322471174</v>
       </c>
-      <c r="M4" s="2">
+      <c r="P4" s="4">
         <v>-9.9791410496096393</v>
       </c>
-      <c r="N4" s="2">
+      <c r="Q4" s="4">
         <v>-35.332077928274472</v>
       </c>
-      <c r="O4" s="2">
+      <c r="R4" s="4">
         <v>-29.216591627645247</v>
       </c>
-      <c r="P4" s="2">
+      <c r="S4" s="4">
         <v>-34.845610587104638</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="T4" s="4">
         <v>-26.420415520282919</v>
       </c>
-      <c r="R4" s="2">
+      <c r="U4" s="4">
         <v>-31.2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>-1.0178640287429661</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>11.346929601704423</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>1.0451502167001578</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>-14.227400806858526</v>
       </c>
       <c r="G5" s="2">
+        <v>1.352189539977265</v>
+      </c>
+      <c r="H5" s="6">
         <v>-15.481035607472791</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
+        <v>-9.5620281859173915</v>
+      </c>
+      <c r="J5" s="6">
         <v>-15.855653610246421</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
+        <v>-5.5617116288438213</v>
+      </c>
+      <c r="L5" s="6">
         <v>-29.6</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M5" s="4">
         <v>13.130399940314941</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N5" s="4">
         <v>8.1881613297888194</v>
       </c>
-      <c r="L5" s="2">
+      <c r="O5" s="4">
         <v>-7.7048473785764751</v>
       </c>
-      <c r="M5" s="2">
+      <c r="P5" s="4">
         <v>6.7112978883278576</v>
       </c>
-      <c r="N5" s="2">
+      <c r="Q5" s="4">
         <v>-8.9764097726429064</v>
       </c>
-      <c r="O5" s="2">
+      <c r="R5" s="4">
         <v>-1.2874299905472999</v>
       </c>
-      <c r="P5" s="2">
+      <c r="S5" s="4">
         <v>-12.051070255662651</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="T5" s="4">
         <v>-3.9517375878021626</v>
       </c>
-      <c r="R5" s="2">
+      <c r="U5" s="4">
         <v>-31.2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>-13.841716279694591</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>2.8015484781003037</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>-16.609690563218344</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>-28.512916674389437</v>
       </c>
       <c r="G6" s="2">
+        <v>-13.425204088499513</v>
+      </c>
+      <c r="H6" s="6">
         <v>-21.998695057938491</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
+        <v>-22.222645513263732</v>
+      </c>
+      <c r="J6" s="6">
         <v>-34.039429920126786</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
+        <v>-24.70204092536353</v>
+      </c>
+      <c r="L6" s="6">
         <v>-29.6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="M6" s="4">
         <v>3.1707930266127229</v>
       </c>
-      <c r="K6" s="2">
+      <c r="N6" s="4">
         <v>-8.6649960070292291</v>
       </c>
-      <c r="L6" s="2">
+      <c r="O6" s="4">
         <v>-22.470618489367546</v>
       </c>
-      <c r="M6" s="2">
+      <c r="P6" s="4">
         <v>-3.6136293656040763</v>
       </c>
-      <c r="N6" s="2">
+      <c r="Q6" s="4">
         <v>-18.402335051291463</v>
       </c>
-      <c r="O6" s="2">
+      <c r="R6" s="4">
         <v>-19.435695401078213</v>
       </c>
-      <c r="P6" s="2">
+      <c r="S6" s="4">
         <v>-32.923113476076992</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="T6" s="4">
         <v>-22.206623191230417</v>
       </c>
-      <c r="R6" s="2">
+      <c r="U6" s="4">
         <v>-31.2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>-17.033799777926017</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>-1.8290296483081081</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>-21.882937942121512</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>-33.159463435364444</v>
       </c>
       <c r="G7" s="2">
+        <v>-16.220510773646229</v>
+      </c>
+      <c r="H7" s="6">
         <v>-25.883445679090919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>-27.719282073795544</v>
+      </c>
+      <c r="J7" s="6">
         <v>-38.581441325831626</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
+        <v>-25.475192499316911</v>
+      </c>
+      <c r="L7" s="6">
         <v>-29.6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="4">
         <v>-1.4711517220255377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="4">
         <v>-16.979807756962284</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="4">
         <v>-31.770882755622086</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="4">
         <v>-8.9291208865241938</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="4">
         <v>-22.826584622861514</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="4">
         <v>-24.54793765924239</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="4">
         <v>-37.544033246606119</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="4">
         <v>-26.171975724785277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="4">
         <v>-31.2</v>
       </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
